--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="2" r:id="rId1"/>
@@ -436,7 +436,7 @@
     <t>1. Median income by zip code from data.gov</t>
   </si>
   <si>
-    <t>2. Home listings address, zip code, price</t>
+    <t>2. Home listings address, zip code, price from scraping www.realtor.com</t>
   </si>
 </sst>
 </file>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
